--- a/InputData/elec/BZECfNP/BAU Zero Emis Credit for Nuc Plants.xlsx
+++ b/InputData/elec/BZECfNP/BAU Zero Emis Credit for Nuc Plants.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\template_state_3.3\elec\BZECfNP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\elec\BZECfNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE7972F-8EFD-47B2-AAE3-20BB5B01597F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C4FA362-DFD3-4E6F-864B-C6442419400E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12645" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="14400" windowHeight="7290" activeTab="1" xr2:uid="{C5EFE8E4-8660-49B5-88C2-8D099D44E411}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="BZECfNP" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="BZECfNP" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,51 +40,150 @@
     <t>BZECfNP BAU Zero Emissions Credit for Nuclear Plants</t>
   </si>
   <si>
+    <t>https://www.eia.gov/todayinenergy/detail.php?id=41534</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>EIA</t>
+  </si>
+  <si>
+    <t>Today in Energy: Five states have implemented programs to assist nuclear power plants</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>This variable uses $/MWh data from states with programs to support nuclear plants,</t>
+  </si>
+  <si>
+    <t>multiplied by the national share of nuclear plants that receive such support.</t>
+  </si>
+  <si>
+    <t>Unit: 2012 $/MWh</t>
+  </si>
+  <si>
+    <t>Average support in states that support nuclear plants</t>
+  </si>
+  <si>
+    <t>$/MWh</t>
+  </si>
+  <si>
+    <t>Share of nuclear capacity receiving support</t>
+  </si>
+  <si>
+    <t>National average support for nuclear plants</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combustion turbine</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>solar pv</t>
+  </si>
+  <si>
+    <t>solar thermal</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>natural gas peaker</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
     <t>Colorado</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>EIA</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Today in Energy: Five states have implemented programs to assist nuclear power plants</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/todayinenergy/detail.php?id=41534</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
@@ -94,27 +193,18 @@
     <t>CT</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Delaware</t>
   </si>
   <si>
     <t>DE</t>
   </si>
   <si>
-    <t>This variable uses $/MWh data from states with programs to support nuclear plants,</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
     <t>FL</t>
   </si>
   <si>
-    <t>multiplied by the national share of nuclear plants that receive such support.</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -127,18 +217,12 @@
     <t>HI</t>
   </si>
   <si>
-    <t>Average support in states that support nuclear plants</t>
-  </si>
-  <si>
     <t>Idaho</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>$/MWh</t>
-  </si>
-  <si>
     <t>Illinois</t>
   </si>
   <si>
@@ -151,9 +235,6 @@
     <t>IN</t>
   </si>
   <si>
-    <t>Share of nuclear capacity receiving support</t>
-  </si>
-  <si>
     <t>Iowa</t>
   </si>
   <si>
@@ -172,9 +253,6 @@
     <t>KY</t>
   </si>
   <si>
-    <t>National average support for nuclear plants</t>
-  </si>
-  <si>
     <t>Louisiana</t>
   </si>
   <si>
@@ -187,9 +265,6 @@
     <t>ME</t>
   </si>
   <si>
-    <t>Maryland</t>
-  </si>
-  <si>
     <t>MD</t>
   </si>
   <si>
@@ -371,81 +446,6 @@
   </si>
   <si>
     <t>WY</t>
-  </si>
-  <si>
-    <t>Unit: 2012 $/MWh</t>
-  </si>
-  <si>
-    <t>hard coal</t>
-  </si>
-  <si>
-    <t>natural gas steam turbine</t>
-  </si>
-  <si>
-    <t>natural gas combustion turbine</t>
-  </si>
-  <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>onshore wind</t>
-  </si>
-  <si>
-    <t>solar pv</t>
-  </si>
-  <si>
-    <t>solar thermal</t>
-  </si>
-  <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>geothermal</t>
-  </si>
-  <si>
-    <t>petroleum</t>
-  </si>
-  <si>
-    <t>natural gas peaker</t>
-  </si>
-  <si>
-    <t>lignite</t>
-  </si>
-  <si>
-    <t>offshore wind</t>
-  </si>
-  <si>
-    <t>crude oil</t>
-  </si>
-  <si>
-    <t>heavy or residual fuel oil</t>
-  </si>
-  <si>
-    <t>municipal solid waste</t>
-  </si>
-  <si>
-    <t>hard coal w CCS</t>
-  </si>
-  <si>
-    <t>natural gas combined cycle w CCS</t>
-  </si>
-  <si>
-    <t>biomass w CCS</t>
-  </si>
-  <si>
-    <t>lignite w CCS</t>
-  </si>
-  <si>
-    <t>small modular reactor</t>
-  </si>
-  <si>
-    <t>hydrogen combustion turbine</t>
-  </si>
-  <si>
-    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -845,521 +845,521 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD24FED-1FE2-4888-B6B4-6A2AD33A9CF5}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C1" s="8">
-        <v>45182</v>
+        <v>45237</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B2" t="str">
         <f>LOOKUP(B1,F1:G50,G1:G50)</f>
         <v>CO</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B4" s="4">
         <v>2019</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F14" s="7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A16" s="5">
         <v>0.13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F17" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A19" s="6">
         <f>A13*A16</f>
         <v>1.9500000000000002</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F20" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F22" s="7" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F23" s="7" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F24" s="7" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F25" s="7" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F26" s="7" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F27" s="7" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F28" s="7" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F29" s="7" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F30" s="7" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F31" s="7" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F32" s="7" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F33" s="7" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F34" s="7" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F35" s="7" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F36" s="7" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F37" s="7" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F38" s="7" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F39" s="7" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F40" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F41" s="7" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F42" s="7" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F43" s="7" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F44" s="7" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F45" s="7" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F46" s="7" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F47" s="7" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F48" s="7" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F49" s="7" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F50" s="7" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{38FE5B1C-E80A-4CEC-A33A-AF7B4113C862}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5219AD4A-B58F-488A-85D3-8AC59C46BE97}">
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1368,7 +1368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E711EE28-FA43-4667-9C9B-C8367E936C88}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1378,14 +1378,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.40625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -1478,9 +1478,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1573,9 +1573,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1668,9 +1668,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1763,20 +1763,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <f>About!$A$19</f>
         <v>1.9500000000000002</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:AE5" si="0">$B5</f>
+        <f>$B5</f>
         <v>1.9500000000000002</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:AE5" si="0">$B5</f>
         <v>1.9500000000000002</v>
       </c>
       <c r="E5">
@@ -1888,9 +1888,9 @@
         <v>1.9500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1983,9 +1983,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2078,9 +2078,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2173,9 +2173,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2268,9 +2268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2363,9 +2363,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2458,9 +2458,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2553,9 +2553,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2648,9 +2648,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2743,9 +2743,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2838,9 +2838,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2933,9 +2933,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3028,9 +3028,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3123,9 +3123,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3218,9 +3218,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3313,9 +3313,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3408,9 +3408,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3503,20 +3503,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <f>About!$A$19</f>
         <v>1.9500000000000002</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:AE23" si="1">$B23</f>
+        <f>$B23</f>
         <v>1.9500000000000002</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D23:AE23" si="1">$B23</f>
         <v>1.9500000000000002</v>
       </c>
       <c r="E23">
@@ -3628,9 +3628,9 @@
         <v>1.9500000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3723,9 +3723,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3820,6 +3820,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/elec/BZECfNP/BAU Zero Emis Credit for Nuc Plants.xlsx
+++ b/InputData/elec/BZECfNP/BAU Zero Emis Credit for Nuc Plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\elec\BZECfNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C4FA362-DFD3-4E6F-864B-C6442419400E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F13CDC-493B-4B8B-B92C-EE4C3221D9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="14400" windowHeight="7290" activeTab="1" xr2:uid="{C5EFE8E4-8660-49B5-88C2-8D099D44E411}"/>
+    <workbookView xWindow="720" yWindow="660" windowWidth="16755" windowHeight="14505" activeTab="1" xr2:uid="{C5EFE8E4-8660-49B5-88C2-8D099D44E411}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -852,9 +852,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +862,7 @@
         <v>48</v>
       </c>
       <c r="C1" s="8">
-        <v>45237</v>
+        <v>45293</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>38</v>
@@ -871,7 +871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>LOOKUP(B1,F1:G50,G1:G50)</f>
         <v>CO</v>
@@ -883,7 +883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -897,7 +897,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>2019</v>
       </c>
@@ -908,7 +908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -919,7 +919,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="7" t="s">
         <v>50</v>
       </c>
@@ -938,7 +938,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -949,7 +949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -960,7 +960,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -971,7 +971,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
@@ -979,7 +979,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -990,7 +990,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="7" t="s">
         <v>64</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>0.13</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F17" s="7" t="s">
         <v>70</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f>A13*A16</f>
         <v>1.9500000000000002</v>
@@ -1068,7 +1068,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F20" s="7" t="s">
         <v>37</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F21" s="7" t="s">
         <v>77</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F22" s="7" t="s">
         <v>79</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F23" s="7" t="s">
         <v>81</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F24" s="7" t="s">
         <v>83</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F25" s="7" t="s">
         <v>85</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F26" s="7" t="s">
         <v>87</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F27" s="7" t="s">
         <v>89</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F28" s="7" t="s">
         <v>91</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F29" s="7" t="s">
         <v>93</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F30" s="7" t="s">
         <v>95</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F31" s="7" t="s">
         <v>97</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F32" s="7" t="s">
         <v>99</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="7" t="s">
         <v>101</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="7" t="s">
         <v>103</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="7" t="s">
         <v>105</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" s="7" t="s">
         <v>107</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F37" s="7" t="s">
         <v>109</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F38" s="7" t="s">
         <v>111</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F39" s="7" t="s">
         <v>113</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F40" s="7" t="s">
         <v>115</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F41" s="7" t="s">
         <v>117</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F42" s="7" t="s">
         <v>119</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F43" s="7" t="s">
         <v>121</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F44" s="7" t="s">
         <v>123</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F45" s="7" t="s">
         <v>125</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F46" s="7" t="s">
         <v>127</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F47" s="7" t="s">
         <v>129</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F48" s="7" t="s">
         <v>131</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F49" s="7" t="s">
         <v>133</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50" s="7" t="s">
         <v>135</v>
       </c>
@@ -1332,32 +1332,32 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1378,12 +1378,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>1.9500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>1.9500000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
